--- a/Files/myData.xlsx
+++ b/Files/myData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azizu\IdeaProjects\Batch2AdvanceJava\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBB7E64-13CD-4044-96CE-BFAA179C9FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E76308-52CE-4DD1-BCD2-077DB1674C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{91083C0D-8624-45E4-BA74-9C692483281C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{91083C0D-8624-45E4-BA74-9C692483281C}"/>
   </bookViews>
   <sheets>
-    <sheet name="userData" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
   <si>
     <t>firstName</t>
   </si>
@@ -428,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2980F5D3-6BBB-4C6A-AA45-F44F3EDA71DC}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,4 +511,89 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFCB433-161F-47EB-8B6A-3F9045C84512}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>150000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Files/myData.xlsx
+++ b/Files/myData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azizu\IdeaProjects\Batch2AdvanceJava\Files\"/>
     </mc:Choice>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
   <si>
     <t>firstName</t>
   </si>
@@ -76,12 +76,16 @@
   </si>
   <si>
     <t>Zaland</t>
+  </si>
+  <si>
+    <t>AMINZAI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -435,76 +439,76 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>5001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>5002</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>3000</v>
       </c>
     </row>
@@ -524,72 +528,72 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>150000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>150000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>150000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>150000</v>
       </c>
     </row>
